--- a/hvac_schedules.xlsx
+++ b/hvac_schedules.xlsx
@@ -484,7 +484,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -514,7 +514,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -574,7 +574,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -694,7 +694,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1114,7 +1114,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1234,7 +1234,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1294,7 +1294,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1354,7 +1354,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1414,7 +1414,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1474,7 +1474,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1523,7 +1523,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1594,7 +1594,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1703,7 +1703,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1774,7 +1774,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1834,7 +1834,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1894,7 +1894,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>11/13/2025</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2003,7 +2003,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2033,7 +2033,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2074,7 +2074,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2134,7 +2134,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2194,7 +2194,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2224,7 +2224,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2254,7 +2254,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2423,7 +2423,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2494,7 +2494,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2524,7 +2524,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2554,7 +2554,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2584,7 +2584,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>11/14/2025</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2674,7 +2674,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2704,7 +2704,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2723,7 +2723,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2903,7 +2903,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2974,7 +2974,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3004,7 +3004,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3034,7 +3034,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3053,7 +3053,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3233,7 +3233,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>11/15/2025</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3383,7 +3383,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3413,7 +3413,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3454,7 +3454,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3484,7 +3484,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3544,7 +3544,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3574,7 +3574,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3634,7 +3634,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3664,7 +3664,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3694,7 +3694,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3724,7 +3724,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3754,7 +3754,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3784,7 +3784,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3814,7 +3814,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3844,7 +3844,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3874,7 +3874,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3904,7 +3904,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3934,7 +3934,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3964,7 +3964,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3994,7 +3994,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4013,7 +4013,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>11/16/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4084,7 +4084,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4103,7 +4103,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4133,7 +4133,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4163,7 +4163,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4193,7 +4193,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4223,7 +4223,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4283,7 +4283,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4313,7 +4313,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4343,7 +4343,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4384,7 +4384,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4414,7 +4414,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4444,7 +4444,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4474,7 +4474,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4504,7 +4504,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4534,7 +4534,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4564,7 +4564,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4594,7 +4594,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4624,7 +4624,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4673,7 +4673,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4703,7 +4703,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4733,7 +4733,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>11/17/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4793,7 +4793,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4823,7 +4823,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4853,7 +4853,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4894,7 +4894,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4924,7 +4924,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4954,7 +4954,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4984,7 +4984,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5014,7 +5014,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5044,7 +5044,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5063,7 +5063,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5093,7 +5093,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5123,7 +5123,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5164,7 +5164,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5194,7 +5194,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5224,7 +5224,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5254,7 +5254,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5284,7 +5284,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5314,7 +5314,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5344,7 +5344,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5374,7 +5374,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5404,7 +5404,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5434,7 +5434,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5464,7 +5464,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5494,7 +5494,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
